--- a/Team-Data/2013-14/3-17-2013-14.xlsx
+++ b/Team-Data/2013-14/3-17-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
         <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.462</v>
+        <v>0.453</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,7 +751,7 @@
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
@@ -693,16 +760,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="N2" t="n">
         <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0.777</v>
@@ -711,10 +778,10 @@
         <v>8.9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
         <v>25.3</v>
@@ -723,10 +790,10 @@
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.5</v>
@@ -735,22 +802,22 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -777,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -801,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,10 +933,10 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,25 +945,25 @@
         <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
         <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U3" t="n">
         <v>20.6</v>
@@ -908,25 +975,25 @@
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC3" t="n">
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -953,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -965,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>7</v>
@@ -974,13 +1041,13 @@
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.523</v>
+        <v>0.516</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
         <v>8.300000000000001</v>
@@ -1060,16 +1127,16 @@
         <v>22.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
         <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
         <v>8.800000000000001</v>
@@ -1078,7 +1145,7 @@
         <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.6</v>
@@ -1093,22 +1160,22 @@
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1144,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1171,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>22</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.485</v>
+        <v>0.493</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
         <v>9.1</v>
@@ -1263,37 +1330,37 @@
         <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1305,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>24</v>
@@ -1323,10 +1390,10 @@
         <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1350,22 +1417,22 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J6" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L6" t="n">
         <v>6.1</v>
@@ -1424,16 +1491,16 @@
         <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
         <v>11.8</v>
@@ -1442,13 +1509,13 @@
         <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1457,22 +1524,22 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1493,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1505,7 +1572,7 @@
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1666,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1681,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>16</v>
@@ -1705,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O8" t="n">
         <v>17</v>
@@ -1797,10 +1864,10 @@
         <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
         <v>30.2</v>
@@ -1809,19 +1876,19 @@
         <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>13.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
         <v>20.2</v>
@@ -1830,13 +1897,13 @@
         <v>19.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="AC8" t="n">
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,10 +1918,10 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1899,7 +1966,7 @@
         <v>25</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>11</v>
@@ -1911,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
         <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.448</v>
+        <v>0.439</v>
       </c>
       <c r="H9" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J9" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.72</v>
+        <v>0.717</v>
       </c>
       <c r="R9" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
         <v>33.2</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>22.2</v>
@@ -2009,16 +2076,16 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2042,13 +2109,13 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2075,10 +2142,10 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2263,10 +2330,10 @@
         <v>7</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,10 +2461,10 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2436,13 +2503,13 @@
         <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
         <v>79.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.475</v>
+        <v>0.473</v>
       </c>
       <c r="L12" t="n">
         <v>9.1</v>
@@ -2516,19 +2583,19 @@
         <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
         <v>0.699</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
         <v>33.9</v>
@@ -2537,16 +2604,16 @@
         <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
@@ -2555,19 +2622,19 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2579,13 +2646,13 @@
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
@@ -2701,25 +2768,25 @@
         <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
         <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
         <v>15.3</v>
@@ -2737,19 +2804,19 @@
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
         <v>98.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2767,10 +2834,10 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
@@ -2782,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2797,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
         <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.706</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,76 +2935,76 @@
         <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R14" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
         <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
         <v>23.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2949,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2982,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3158,7 +3225,7 @@
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
@@ -3185,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3307,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3483,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3510,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3677,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3695,7 +3762,7 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4059,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>9</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4089,7 +4156,7 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4214,13 +4281,13 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>16</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4268,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4277,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.731</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M22" t="n">
         <v>21.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q22" t="n">
         <v>0.804</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T22" t="n">
         <v>45.3</v>
@@ -4363,7 +4430,7 @@
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4378,13 +4445,13 @@
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,13 +4466,13 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4441,19 +4508,19 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4626,13 +4693,13 @@
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="n">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4688,7 +4755,7 @@
         <v>37.9</v>
       </c>
       <c r="J24" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="K24" t="n">
         <v>0.431</v>
@@ -4700,16 +4767,16 @@
         <v>22.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.307</v>
+        <v>0.305</v>
       </c>
       <c r="O24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.714</v>
+        <v>0.716</v>
       </c>
       <c r="R24" t="n">
         <v>11.8</v>
@@ -4727,28 +4794,28 @@
         <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y24" t="n">
         <v>7.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA24" t="n">
         <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.4</v>
+        <v>-11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
@@ -4769,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.46</v>
@@ -4879,25 +4946,25 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
         <v>18.8</v>
       </c>
       <c r="P25" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
         <v>43.2</v>
@@ -4909,13 +4976,13 @@
         <v>15.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
         <v>22.1</v>
@@ -4924,25 +4991,25 @@
         <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4960,40 +5027,40 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
         <v>7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
         <v>23</v>
@@ -5005,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,10 +5191,10 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
@@ -5187,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5348,10 +5415,10 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5521,7 +5588,7 @@
         <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>16</v>
@@ -5542,7 +5609,7 @@
         <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5734,7 @@
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5703,7 +5770,7 @@
         <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>17</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5792,10 +5859,10 @@
         <v>19.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O30" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P30" t="n">
         <v>21.7</v>
@@ -5804,13 +5871,13 @@
         <v>0.748</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
@@ -5825,22 +5892,22 @@
         <v>4.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.7</v>
+        <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5864,13 +5931,13 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
         <v>24</v>
@@ -5879,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5888,7 +5955,7 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5903,7 +5970,7 @@
         <v>19</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
@@ -6079,7 +6146,7 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-17-2013-14</t>
+          <t>2014-03-17</t>
         </is>
       </c>
     </row>
